--- a/content/plataformes/dadesref/entitats/Tipus_Via.xlsx
+++ b/content/plataformes/dadesref/entitats/Tipus_Via.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\06.Tipus_Via\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\GTD\Publicacio\01.GTD_BD_Local\01.Carregar_valors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C96529-1A5B-4D1C-8C03-D95B53A3C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Tipus de via" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="461">
   <si>
     <t>Codi</t>
   </si>
@@ -1395,13 +1394,37 @@
   </si>
   <si>
     <t>Tipus de via</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP </t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST </t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,6 +1456,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1485,7 +1514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,10 +1534,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Hoja2" xfId="1"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1520,7 +1553,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1540,7 +1572,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1560,7 +1591,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1580,7 +1610,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1601,7 +1630,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1626,7 +1654,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1650,12 +1677,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D198" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:D202" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{65C98C64-1DBA-422B-AC39-85564CE213DF}" name="Nom" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{971D15CF-7D76-4445-A850-30F8871A74F4}" name="Abreviatura" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9ADB0662-2E8A-41A9-B7B9-1D429217DDE2}" name="Idioma" dataDxfId="0"/>
+    <tableColumn id="1" name="Codi" dataDxfId="3"/>
+    <tableColumn id="3" name="Nom" dataDxfId="2"/>
+    <tableColumn id="4" name="Abreviatura" dataDxfId="1"/>
+    <tableColumn id="2" name="Idioma" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1923,20 +1950,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -1944,7 +1973,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1987,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>95</v>
       </c>
@@ -1972,7 +2001,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>96</v>
       </c>
@@ -1986,7 +2015,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>97</v>
       </c>
@@ -2000,7 +2029,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>98</v>
       </c>
@@ -2014,7 +2043,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>99</v>
       </c>
@@ -2028,7 +2057,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>100</v>
       </c>
@@ -2042,7 +2071,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>101</v>
       </c>
@@ -2056,7 +2085,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>102</v>
       </c>
@@ -2070,7 +2099,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>103</v>
       </c>
@@ -2084,7 +2113,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>104</v>
       </c>
@@ -2098,7 +2127,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>105</v>
       </c>
@@ -2112,7 +2141,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>106</v>
       </c>
@@ -2126,7 +2155,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -2140,7 +2169,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>108</v>
       </c>
@@ -2154,7 +2183,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>109</v>
       </c>
@@ -2168,7 +2197,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>110</v>
       </c>
@@ -2182,7 +2211,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>111</v>
       </c>
@@ -2196,7 +2225,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>112</v>
       </c>
@@ -2210,7 +2239,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>113</v>
       </c>
@@ -2224,7 +2253,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -2238,7 +2267,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>115</v>
       </c>
@@ -2252,7 +2281,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>116</v>
       </c>
@@ -2266,7 +2295,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>117</v>
       </c>
@@ -2280,7 +2309,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>118</v>
       </c>
@@ -2294,7 +2323,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>119</v>
       </c>
@@ -2308,7 +2337,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>120</v>
       </c>
@@ -2322,7 +2351,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>121</v>
       </c>
@@ -2336,7 +2365,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>122</v>
       </c>
@@ -2350,7 +2379,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>123</v>
       </c>
@@ -2364,7 +2393,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>124</v>
       </c>
@@ -2378,7 +2407,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>125</v>
       </c>
@@ -2392,7 +2421,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>126</v>
       </c>
@@ -2406,7 +2435,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>127</v>
       </c>
@@ -2420,7 +2449,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>128</v>
       </c>
@@ -2434,7 +2463,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>129</v>
       </c>
@@ -2448,7 +2477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>130</v>
       </c>
@@ -2462,7 +2491,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>131</v>
       </c>
@@ -2476,7 +2505,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>132</v>
       </c>
@@ -2490,7 +2519,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>133</v>
       </c>
@@ -2504,7 +2533,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>134</v>
       </c>
@@ -2518,7 +2547,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>135</v>
       </c>
@@ -2532,7 +2561,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>136</v>
       </c>
@@ -2546,7 +2575,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>137</v>
       </c>
@@ -2560,7 +2589,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>138</v>
       </c>
@@ -2574,7 +2603,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>139</v>
       </c>
@@ -2588,7 +2617,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>140</v>
       </c>
@@ -2602,7 +2631,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>141</v>
       </c>
@@ -2616,7 +2645,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>142</v>
       </c>
@@ -2630,7 +2659,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>143</v>
       </c>
@@ -2644,7 +2673,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>144</v>
       </c>
@@ -2658,7 +2687,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>145</v>
       </c>
@@ -2672,7 +2701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>146</v>
       </c>
@@ -2686,7 +2715,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>147</v>
       </c>
@@ -2700,7 +2729,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>148</v>
       </c>
@@ -2714,7 +2743,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>149</v>
       </c>
@@ -2728,7 +2757,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>150</v>
       </c>
@@ -2742,7 +2771,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>151</v>
       </c>
@@ -2756,7 +2785,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>152</v>
       </c>
@@ -2770,7 +2799,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>153</v>
       </c>
@@ -2784,7 +2813,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>154</v>
       </c>
@@ -2798,7 +2827,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>155</v>
       </c>
@@ -2812,7 +2841,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>156</v>
       </c>
@@ -2826,7 +2855,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>157</v>
       </c>
@@ -2840,7 +2869,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>158</v>
       </c>
@@ -2854,7 +2883,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>159</v>
       </c>
@@ -2868,7 +2897,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>160</v>
       </c>
@@ -2882,7 +2911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>161</v>
       </c>
@@ -2896,7 +2925,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>162</v>
       </c>
@@ -2910,7 +2939,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>163</v>
       </c>
@@ -2924,7 +2953,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>164</v>
       </c>
@@ -2938,7 +2967,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>165</v>
       </c>
@@ -2952,7 +2981,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>166</v>
       </c>
@@ -2966,7 +2995,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>167</v>
       </c>
@@ -2980,7 +3009,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>168</v>
       </c>
@@ -2994,7 +3023,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>169</v>
       </c>
@@ -3008,7 +3037,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>170</v>
       </c>
@@ -3022,7 +3051,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>171</v>
       </c>
@@ -3036,7 +3065,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>172</v>
       </c>
@@ -3050,7 +3079,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>173</v>
       </c>
@@ -3064,7 +3093,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>174</v>
       </c>
@@ -3078,7 +3107,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>175</v>
       </c>
@@ -3092,7 +3121,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>176</v>
       </c>
@@ -3106,7 +3135,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
@@ -3120,7 +3149,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>178</v>
       </c>
@@ -3134,7 +3163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>179</v>
       </c>
@@ -3148,7 +3177,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>180</v>
       </c>
@@ -3162,7 +3191,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>181</v>
       </c>
@@ -3176,7 +3205,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>182</v>
       </c>
@@ -3190,7 +3219,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>183</v>
       </c>
@@ -3204,7 +3233,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>184</v>
       </c>
@@ -3218,7 +3247,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>190</v>
       </c>
@@ -3232,7 +3261,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>448</v>
       </c>
@@ -3246,7 +3275,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>449</v>
       </c>
@@ -3260,7 +3289,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>257</v>
       </c>
@@ -3274,7 +3303,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>259</v>
       </c>
@@ -3288,7 +3317,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>261</v>
       </c>
@@ -3302,7 +3331,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>262</v>
       </c>
@@ -3316,7 +3345,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>265</v>
       </c>
@@ -3330,7 +3359,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>267</v>
       </c>
@@ -3344,7 +3373,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>268</v>
       </c>
@@ -3358,7 +3387,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>270</v>
       </c>
@@ -3372,7 +3401,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>271</v>
       </c>
@@ -3386,7 +3415,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>272</v>
       </c>
@@ -3400,7 +3429,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>273</v>
       </c>
@@ -3414,7 +3443,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>275</v>
       </c>
@@ -3428,7 +3457,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>277</v>
       </c>
@@ -3442,7 +3471,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>279</v>
       </c>
@@ -3456,7 +3485,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>281</v>
       </c>
@@ -3470,7 +3499,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>284</v>
       </c>
@@ -3484,7 +3513,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>287</v>
       </c>
@@ -3498,7 +3527,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>289</v>
       </c>
@@ -3512,7 +3541,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>290</v>
       </c>
@@ -3526,7 +3555,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>291</v>
       </c>
@@ -3540,7 +3569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>293</v>
       </c>
@@ -3554,7 +3583,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>296</v>
       </c>
@@ -3568,7 +3597,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>299</v>
       </c>
@@ -3582,7 +3611,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>302</v>
       </c>
@@ -3596,7 +3625,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>305</v>
       </c>
@@ -3610,7 +3639,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>308</v>
       </c>
@@ -3624,7 +3653,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>309</v>
       </c>
@@ -3638,7 +3667,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>312</v>
       </c>
@@ -3652,7 +3681,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>315</v>
       </c>
@@ -3666,7 +3695,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>318</v>
       </c>
@@ -3680,7 +3709,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>320</v>
       </c>
@@ -3694,7 +3723,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>321</v>
       </c>
@@ -3708,7 +3737,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>323</v>
       </c>
@@ -3722,7 +3751,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>325</v>
       </c>
@@ -3736,7 +3765,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>327</v>
       </c>
@@ -3750,7 +3779,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>329</v>
       </c>
@@ -3764,7 +3793,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>330</v>
       </c>
@@ -3778,7 +3807,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>333</v>
       </c>
@@ -3792,7 +3821,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>336</v>
       </c>
@@ -3806,7 +3835,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>339</v>
       </c>
@@ -3820,7 +3849,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>342</v>
       </c>
@@ -3834,7 +3863,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>343</v>
       </c>
@@ -3848,7 +3877,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>346</v>
       </c>
@@ -3862,7 +3891,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>347</v>
       </c>
@@ -3876,7 +3905,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>348</v>
       </c>
@@ -3890,7 +3919,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>350</v>
       </c>
@@ -3904,7 +3933,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>353</v>
       </c>
@@ -3918,7 +3947,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>355</v>
       </c>
@@ -3932,7 +3961,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>358</v>
       </c>
@@ -3946,7 +3975,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>359</v>
       </c>
@@ -3960,7 +3989,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>361</v>
       </c>
@@ -3974,7 +4003,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>363</v>
       </c>
@@ -3988,7 +4017,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>366</v>
       </c>
@@ -4002,7 +4031,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>367</v>
       </c>
@@ -4016,7 +4045,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>368</v>
       </c>
@@ -4030,7 +4059,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>371</v>
       </c>
@@ -4044,7 +4073,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>372</v>
       </c>
@@ -4058,7 +4087,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>373</v>
       </c>
@@ -4072,7 +4101,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>374</v>
       </c>
@@ -4086,7 +4115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>377</v>
       </c>
@@ -4100,7 +4129,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>378</v>
       </c>
@@ -4114,7 +4143,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>381</v>
       </c>
@@ -4128,7 +4157,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>382</v>
       </c>
@@ -4142,7 +4171,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>383</v>
       </c>
@@ -4156,7 +4185,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>384</v>
       </c>
@@ -4170,7 +4199,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>386</v>
       </c>
@@ -4184,7 +4213,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>388</v>
       </c>
@@ -4198,7 +4227,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>389</v>
       </c>
@@ -4212,7 +4241,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>392</v>
       </c>
@@ -4226,7 +4255,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>393</v>
       </c>
@@ -4240,7 +4269,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>395</v>
       </c>
@@ -4254,7 +4283,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>397</v>
       </c>
@@ -4268,7 +4297,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>399</v>
       </c>
@@ -4282,7 +4311,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>401</v>
       </c>
@@ -4296,7 +4325,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>404</v>
       </c>
@@ -4310,7 +4339,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>406</v>
       </c>
@@ -4324,7 +4353,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>409</v>
       </c>
@@ -4338,7 +4367,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>412</v>
       </c>
@@ -4352,7 +4381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>415</v>
       </c>
@@ -4366,7 +4395,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>417</v>
       </c>
@@ -4380,7 +4409,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>418</v>
       </c>
@@ -4394,7 +4423,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>420</v>
       </c>
@@ -4408,7 +4437,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>421</v>
       </c>
@@ -4422,7 +4451,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>422</v>
       </c>
@@ -4436,7 +4465,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>425</v>
       </c>
@@ -4450,7 +4479,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>427</v>
       </c>
@@ -4464,7 +4493,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>428</v>
       </c>
@@ -4478,7 +4507,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>429</v>
       </c>
@@ -4492,7 +4521,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>430</v>
       </c>
@@ -4506,7 +4535,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>431</v>
       </c>
@@ -4520,7 +4549,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>433</v>
       </c>
@@ -4534,7 +4563,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>436</v>
       </c>
@@ -4548,7 +4577,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>437</v>
       </c>
@@ -4562,7 +4591,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>438</v>
       </c>
@@ -4576,7 +4605,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>440</v>
       </c>
@@ -4590,7 +4619,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>442</v>
       </c>
@@ -4604,7 +4633,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>444</v>
       </c>
@@ -4618,7 +4647,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>445</v>
       </c>
@@ -4632,59 +4661,115 @@
         <v>199</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="7">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
         <v>996</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B199" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C199" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D195" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="7">
+      <c r="D199" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
         <v>997</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B200" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C200" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D196" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="7" t="s">
+      <c r="D200" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B201" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C201" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D197" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="7" t="s">
+      <c r="D201" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B202" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C202" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D202" s="8" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4693,7 +4778,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B199:B946" numberStoredAsText="1"/>
+    <ignoredError sqref="B203:B950" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4702,6 +4787,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
@@ -4711,18 +4805,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6441149f88b340211fe514883ffe5417">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8071760aad25b486d5975211ba1b5e67" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
@@ -4740,6 +4825,9 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4787,6 +4875,21 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4920,23 +5023,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4944,21 +5030,23 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D04DC2E7-F92D-42A8-9736-92F966140C17}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B7E2ED-CD38-4B40-9FB3-21BAC3918A87}"/>
 </file>